--- a/biology/Botanique/Clematis_patens_'Ville_de_Lyon'/Clematis_patens_'Ville_de_Lyon'.xlsx
+++ b/biology/Botanique/Clematis_patens_'Ville_de_Lyon'/Clematis_patens_'Ville_de_Lyon'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Ville_de_Lyon%27</t>
+          <t>Clematis_patens_'Ville_de_Lyon'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La clématite patens 'Ville de Lyon' est un cultivar de clématite obtenu en 1899 par François Morel en France. Elle fut présentée au public en 1899 dans une revue horticole française[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite patens 'Ville de Lyon' est un cultivar de clématite obtenu en 1899 par François Morel en France. Elle fut présentée au public en 1899 dans une revue horticole française
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Ville_de_Lyon%27</t>
+          <t>Clematis_patens_'Ville_de_Lyon'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">'Ville de Lyon' est une clématite à fleur rouge rosé possédant entre 7 et 9 sépales et d'un diamètre d'environ 15 centimètres. La couleur jaune des étamines de cette clématite contraste bien avec le rouge de la fleur.
 À taille adulte 'Ville de Lyon' se développe à environ 2 m.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Ville_de_Lyon%27</t>
+          <t>Clematis_patens_'Ville_de_Lyon'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Obtention</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">'Ville de Lyon' a été obtenue par François Morel par croisement de la clématite patens 'Viviand Morel' et de la clématite texensis.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Ville_de_Lyon%27</t>
+          <t>Clematis_patens_'Ville_de_Lyon'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">'ville de Lyon' ne possède aucune protection variétale.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Ville_de_Lyon%27</t>
+          <t>Clematis_patens_'Ville_de_Lyon'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite 'Ville de Lyon' est idéale pour une culture en pleine terre.
 Cette clématite du groupe 3[Quoi ?] fleurit sur le bois de l'année  au printemps puis une deuxième floraison apparaît à l'automne sur les pousses de l'été. Elle résiste à des températures inférieures à −20 °C.
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Ville_de_Lyon%27</t>
+          <t>Clematis_patens_'Ville_de_Lyon'</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Maladies et ravageurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite 'Ville de Lyon' est sensible à l'excès d'eau, qui peut provoquer une pourriture du collet de la plante et ainsi sa mort.
 </t>
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Ville_de_Lyon%27</t>
+          <t>Clematis_patens_'Ville_de_Lyon'</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,10 +691,12 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>RHS Award of merit de la part de la Royal Horticultural Society en Angleterre en 1901[1].
-RHS Award of Garden Merit de la part de la Royal Horticultural Society en Angleterre en 1984[1].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>RHS Award of merit de la part de la Royal Horticultural Society en Angleterre en 1901.
+RHS Award of Garden Merit de la part de la Royal Horticultural Society en Angleterre en 1984.</t>
         </is>
       </c>
     </row>
